--- a/biology/Histoire de la zoologie et de la botanique/Austin_Loomer_Rand/Austin_Loomer_Rand.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Austin_Loomer_Rand/Austin_Loomer_Rand.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Austin Loomer Rand (16 décembre 1905 - 6 novembre 1982) est un zoologiste canadien, ayant principalement travaillé en ornithologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il nait à Kentville (Nouvelle-Écosse) en 1905, et grandit dans la proche ville de Wolfville. Il décroche un baccalauréat en sciences à l'université Acadia, institution où il obtiendra également un doctorat en sciences en 1961.
 En 1929, alors que toujours étudiant de troisième cycle à l'université Cornell, il fait partie d'une expédition à Madagascar pour collecter des oiseaux. Il publie les résultats pour sa thèse de son philosophiæ doctor. C'est lors de cette expédition qu'il rencontre Richard Archbold, zoologiste et philanthrope, dont il devient un ami proche. Archbold financera et mènera plus tard une série d'expéditions biologiques en Nouvelle-Guinée, pendant les années 1930, auxquelles Rand participe et mène à ses côtés des travaux ornithologiques. Durant ces années, plusieurs espèces sont décrites par ses soins, comme la Salangane papoue ou l'Engoulevent d'Archbold.
@@ -548,7 +562,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1936 : The distribution and habits of Madagascar birds. (Bulletin of the American Museum of Natural History).
 1937 : Results of the Archbold expeditions No.14: The birds of the 1933-1934 Papuan expedition. (Bulletin of the American Museum of Natural History. Coécrit avec Ernst Mayr).
